--- a/root_node/multidim_env/datos_verificacion_sigmoid_1como2.xlsx
+++ b/root_node/multidim_env/datos_verificacion_sigmoid_1como2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,10 +437,10 @@
         </is>
       </c>
       <c r="E1" t="n">
-        <v>0.2066617012023926</v>
+        <v>0.2579805850982666</v>
       </c>
       <c r="F1" t="n">
-        <v>1.180511707058307e+22</v>
+        <v>107.9227255182037</v>
       </c>
       <c r="G1" t="inlineStr">
         <is>
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="J1" t="n">
-        <v>0.2714874744415283</v>
+        <v>0.140791654586792</v>
       </c>
       <c r="K1" t="n">
-        <v>2.620599002331868e+22</v>
+        <v>209.3210183313538</v>
       </c>
       <c r="L1" t="inlineStr">
         <is>
@@ -489,11 +489,15 @@
           <t>verif_bounds_prop</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>3.790855407714844e-05</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.620599002331868e+22</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -502,7 +506,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>totalnodelimit</t>
+          <t>no_lptocut</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -510,11 +514,15 @@
           <t>verif_bounds</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v>2.694129943847656e-05</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.620599002331868e+22</v>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -523,7 +531,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>totalnodelimit</t>
+          <t>no_lptocut</t>
         </is>
       </c>
     </row>
@@ -543,10 +551,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.3583385944366455</v>
+        <v>0.2740583419799805</v>
       </c>
       <c r="F3" t="n">
-        <v>1.110920337602042e+22</v>
+        <v>0.1494011062771779</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -564,10 +572,10 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>0.3217353820800781</v>
+        <v>0.2085261344909668</v>
       </c>
       <c r="K3" t="n">
-        <v>1.100879562566426e+22</v>
+        <v>0.07538433828110189</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -596,10 +604,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.5384824275970459</v>
+        <v>0.5316400527954102</v>
       </c>
       <c r="F4" t="n">
-        <v>40.91177693007601</v>
+        <v>40.91177591862145</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -617,10 +625,10 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>0.3061606884002686</v>
+        <v>0.4210569858551025</v>
       </c>
       <c r="K4" t="n">
-        <v>1.730223502605668e+22</v>
+        <v>16.5231370087366</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -648,11 +656,15 @@
           <t>verif_bounds_prop</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>2.717971801757812e-05</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.730223502605668e+22</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -661,7 +673,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>totalnodelimit</t>
+          <t>no_lptocut</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -670,10 +682,10 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0.1485328674316406</v>
+        <v>0.2566745281219482</v>
       </c>
       <c r="K5" t="n">
-        <v>3.782608706942776e+22</v>
+        <v>476.3244120175759</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -702,7 +714,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.03600835800170898</v>
+        <v>0.03652620315551758</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -722,11 +734,15 @@
           <t>verif_bounds</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v>4.053115844726562e-06</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -735,7 +751,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>no_lptocut</t>
         </is>
       </c>
     </row>
@@ -754,11 +770,15 @@
           <t>verif_bounds_prop</t>
         </is>
       </c>
-      <c r="E7" t="n">
-        <v>4.529953002929688e-06</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -767,7 +787,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>no_lptocut</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -775,11 +795,15 @@
           <t>verif_bounds</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v>3.814697265625e-06</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -788,7 +812,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>no_lptocut</t>
         </is>
       </c>
     </row>
@@ -807,11 +831,15 @@
           <t>verif_bounds_prop</t>
         </is>
       </c>
-      <c r="E8" t="n">
-        <v>4.76837158203125e-06</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -820,7 +848,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>no_lptocut</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -828,11 +856,15 @@
           <t>verif_bounds</t>
         </is>
       </c>
-      <c r="J8" t="n">
-        <v>4.76837158203125e-06</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -841,7 +873,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>no_lptocut</t>
         </is>
       </c>
     </row>
@@ -861,7 +893,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.07977533340454102</v>
+        <v>0.0583808422088623</v>
       </c>
       <c r="F9" t="n">
         <v>2.839069191526664e-05</v>
@@ -881,11 +913,15 @@
           <t>verif_bounds</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v>0.0002994537353515625</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.839069191526664e-05</v>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -894,7 +930,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>totalnodelimit</t>
+          <t>no_lptocut</t>
         </is>
       </c>
     </row>
@@ -914,7 +950,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.3098654747009277</v>
+        <v>0.3113603591918945</v>
       </c>
       <c r="F10" t="n">
         <v>0.09420558657083165</v>
@@ -935,7 +971,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>0.3023586273193359</v>
+        <v>0.3040368556976318</v>
       </c>
       <c r="K10" t="n">
         <v>0.08770761888787761</v>
@@ -966,11 +1002,15 @@
           <t>verif_bounds_prop</t>
         </is>
       </c>
-      <c r="E11" t="n">
-        <v>0.0003359317779541016</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.08770761888787761</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -979,7 +1019,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>totalnodelimit</t>
+          <t>no_lptocut</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -988,10 +1028,10 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>0.1895103454589844</v>
+        <v>0.5231564044952393</v>
       </c>
       <c r="K11" t="n">
-        <v>1.000060262023476e+22</v>
+        <v>0.0008015075262634986</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1020,7 +1060,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4.01393985748291</v>
+        <v>4.019202470779419</v>
       </c>
       <c r="F12" t="n">
         <v>0.000260104260769544</v>
@@ -1041,7 +1081,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>4.178158760070801</v>
+        <v>4.175769805908203</v>
       </c>
       <c r="K12" t="n">
         <v>0.0002601813464289333</v>
@@ -1052,642 +1092,6 @@
         </is>
       </c>
       <c r="M12" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>verif_bounds_prop</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>0.2060751914978027</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.180511707058307e+22</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>verif_bounds</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>0.27069091796875</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.620599002331868e+22</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>verif_bounds_prop</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>6.151199340820312e-05</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2.620599002331868e+22</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>verif_bounds</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>5.006790161132812e-05</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.620599002331868e+22</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>2</v>
-      </c>
-      <c r="B15" t="n">
-        <v>10</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>verif_bounds_prop</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>0.3574488162994385</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.110920337602042e+22</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>verif_bounds</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>0.3232448101043701</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1.100879562566426e+22</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>2</v>
-      </c>
-      <c r="B16" t="n">
-        <v>10</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>verif_bounds_prop</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>0.5375008583068848</v>
-      </c>
-      <c r="F16" t="n">
-        <v>40.91177693007601</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>verif_bounds</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v>0.3045144081115723</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1.730223502605668e+22</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>3</v>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>verif_bounds_prop</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>5.14984130859375e-05</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.730223502605668e+22</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>verif_bounds</t>
-        </is>
-      </c>
-      <c r="J17" t="n">
-        <v>0.1487908363342285</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.782608706942776e+22</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>3</v>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>verif_bounds_prop</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>0.03567862510681152</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>verif_bounds</t>
-        </is>
-      </c>
-      <c r="J18" t="n">
-        <v>7.152557373046875e-06</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>3</v>
-      </c>
-      <c r="B19" t="n">
-        <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>verif_bounds_prop</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>8.106231689453125e-06</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>verif_bounds</t>
-        </is>
-      </c>
-      <c r="J19" t="n">
-        <v>8.821487426757812e-06</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>3</v>
-      </c>
-      <c r="B20" t="n">
-        <v>10</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>verif_bounds_prop</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>8.344650268554688e-06</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>verif_bounds</t>
-        </is>
-      </c>
-      <c r="J20" t="n">
-        <v>8.58306884765625e-06</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>4</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>verif_bounds_prop</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>0.07930707931518555</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2.839069191526664e-05</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>verif_bounds</t>
-        </is>
-      </c>
-      <c r="J21" t="n">
-        <v>0.0003221035003662109</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.839069191526664e-05</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>4</v>
-      </c>
-      <c r="B22" t="n">
-        <v>5</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>verif_bounds_prop</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>0.3116452693939209</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.09420558657083165</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>verif_bounds</t>
-        </is>
-      </c>
-      <c r="J22" t="n">
-        <v>0.3027496337890625</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.08770761888787761</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>4</v>
-      </c>
-      <c r="B23" t="n">
-        <v>10</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>verif_bounds_prop</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>0.0003709793090820312</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.08770761888787761</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>verif_bounds</t>
-        </is>
-      </c>
-      <c r="J23" t="n">
-        <v>0.1888501644134521</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1.000060262023476e+22</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>4</v>
-      </c>
-      <c r="B24" t="n">
-        <v>10</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>verif_bounds_prop</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>4.004484176635742</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.000260104260769544</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>totalnodelimit</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>verif_bounds</t>
-        </is>
-      </c>
-      <c r="J24" t="n">
-        <v>4.173021554946899</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.0002601813464289333</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
         <is>
           <t>totalnodelimit</t>
         </is>
